--- a/annotation/vp1_test_selina.xlsx
+++ b/annotation/vp1_test_selina.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexf\Google Drive\Promotion\Paper_TOIS\tois_ml_experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED7B17B-03F2-45F6-8D2E-E764CB34C0E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E43EBE1-8E8E-2A46-8B4C-899AA9BF36B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28080" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vp1_solution" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="165">
   <si>
     <t>utterance</t>
   </si>
@@ -405,6 +405,117 @@
   </si>
   <si>
     <t>info_need</t>
+  </si>
+  <si>
+    <t>Filter Search</t>
+  </si>
+  <si>
+    <t>Recipe Retrieval</t>
+  </si>
+  <si>
+    <t>Ingredient Composition</t>
+  </si>
+  <si>
+    <t>Recipe Summary</t>
+  </si>
+  <si>
+    <t>Ingredients in Recipe</t>
+  </si>
+  <si>
+    <t>Add Ingredients to Recipe Search</t>
+  </si>
+  <si>
+    <t>Request for Information Source</t>
+  </si>
+  <si>
+    <t>Request for Ratings</t>
+  </si>
+  <si>
+    <t>System Processing Status</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Navigation Instruction of SERP</t>
+  </si>
+  <si>
+    <t>Preparation Steps</t>
+  </si>
+  <si>
+    <t>Recipe Selection</t>
+  </si>
+  <si>
+    <t>Ingredient Substitution</t>
+  </si>
+  <si>
+    <t>Cooking technique - Ingredient</t>
+  </si>
+  <si>
+    <t>Cooking technique - Next Step</t>
+  </si>
+  <si>
+    <t>Cooking technique - Reassurance</t>
+  </si>
+  <si>
+    <t>Cooking technique - Question regarding specific step</t>
+  </si>
+  <si>
+    <t>Cooking technique - Request for video</t>
+  </si>
+  <si>
+    <t>Navigation - Switch back to recipe</t>
+  </si>
+  <si>
+    <t>Alternative Prep Step when other ingredient</t>
+  </si>
+  <si>
+    <t>Amount of Persons</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Read out Amount of Ingredients</t>
+  </si>
+  <si>
+    <t>Purpose of Ingredient</t>
+  </si>
+  <si>
+    <t>Cooking time Reassurance</t>
+  </si>
+  <si>
+    <t>Ingredient - Proper Usage</t>
+  </si>
+  <si>
+    <t>Further Processing of Part of meal</t>
+  </si>
+  <si>
+    <t>Amount of Ingredients</t>
+  </si>
+  <si>
+    <t>Change Amount</t>
+  </si>
+  <si>
+    <t>Ingrdient Removal</t>
+  </si>
+  <si>
+    <t>Amoiunt of Ingredients</t>
+  </si>
+  <si>
+    <t>Doppelt</t>
+  </si>
+  <si>
+    <t>Temperature explicit</t>
+  </si>
+  <si>
+    <t>Roasting Time</t>
+  </si>
+  <si>
+    <t>System Instruction - Stop reading out SERP</t>
+  </si>
+  <si>
+    <t>Ingredient addition point in time</t>
   </si>
 </sst>
 </file>
@@ -439,7 +550,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -460,11 +571,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -478,6 +598,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -491,16 +612,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -511,16 +632,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color auto="1"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color auto="1"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -537,7 +658,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBBD3FA8-3F8F-4062-B07C-B3BBC091E205}" name="Tabelle1" displayName="Tabelle1" ref="A1:D121" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FBBD3FA8-3F8F-4062-B07C-B3BBC091E205}" name="Tabelle1" displayName="Tabelle1" ref="A1:D121" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:D121" xr:uid="{23CEC60C-BC86-4DF8-B1B8-B2E92D745E03}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{19D655CA-F6A1-43CC-B2C1-E9479798FDE4}" name="utterance" dataDxfId="5"/>
@@ -550,13 +671,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C4235CA-576B-45AC-A5CB-1FFD71FA36B8}" name="Tabelle13" displayName="Tabelle13" ref="A1:D121" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <autoFilter ref="A1:D121" xr:uid="{E9B10536-5C84-4205-B3A0-1A144E6D8843}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{98027403-7DF1-47BC-BA93-1C893AC7E864}" name="utterance" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7C4235CA-576B-45AC-A5CB-1FFD71FA36B8}" name="Tabelle13" displayName="Tabelle13" ref="A1:E121" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:E121" xr:uid="{E9B10536-5C84-4205-B3A0-1A144E6D8843}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{98027403-7DF1-47BC-BA93-1C893AC7E864}" name="utterance" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{93A4C3E1-2B68-4E01-8813-AD23203DB54C}" name="tp"/>
     <tableColumn id="3" xr3:uid="{3605CC8D-1DE2-4A9E-BACF-46A81D89DF38}" name="absatz"/>
-    <tableColumn id="4" xr3:uid="{463088F7-FA80-4291-ABAC-DAEF9DE79B7D}" name="info_need" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{463088F7-FA80-4291-ABAC-DAEF9DE79B7D}" name="info_need" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{6B18CC81-0025-C34B-AF01-65DEF21A551F}" name="Spalte1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -850,16 +972,16 @@
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D121"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="74.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="74.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -873,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -887,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,7 +1023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -915,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -929,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -943,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,7 +1079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -971,7 +1093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -985,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1027,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1041,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1069,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1083,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1097,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1125,7 +1247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -1139,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1153,7 +1275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1167,7 +1289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1181,7 +1303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1195,7 +1317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -1209,7 +1331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1223,7 +1345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -1237,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -1251,7 +1373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -1265,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -1279,7 +1401,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -1293,7 +1415,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -1307,7 +1429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -1321,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1335,7 +1457,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1349,7 +1471,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1363,7 +1485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1377,7 +1499,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -1405,7 +1527,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -1419,7 +1541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -1433,7 +1555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1447,7 +1569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1461,7 +1583,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -1475,7 +1597,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -1489,7 +1611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1503,7 +1625,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -1517,7 +1639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -1531,7 +1653,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -1545,7 +1667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -1559,7 +1681,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -1573,7 +1695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -1587,7 +1709,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -1601,7 +1723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -1615,7 +1737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -1629,7 +1751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -1643,7 +1765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -1657,7 +1779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -1671,7 +1793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -1685,7 +1807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -1699,7 +1821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -1713,7 +1835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -1727,7 +1849,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -1741,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -1755,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -1769,7 +1891,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -1783,7 +1905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +1919,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -1811,7 +1933,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
@@ -1825,7 +1947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -1839,7 +1961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -1853,7 +1975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -1867,7 +1989,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -1881,7 +2003,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
@@ -1895,7 +2017,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
@@ -1909,7 +2031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -1923,7 +2045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
@@ -1937,7 +2059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
@@ -1951,7 +2073,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
@@ -1965,7 +2087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
@@ -1979,7 +2101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
@@ -1993,7 +2115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
@@ -2007,7 +2129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>89</v>
       </c>
@@ -2021,7 +2143,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
@@ -2035,7 +2157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
@@ -2049,7 +2171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
@@ -2063,7 +2185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -2077,7 +2199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -2091,7 +2213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -2105,7 +2227,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -2119,7 +2241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -2133,7 +2255,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -2147,7 +2269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -2161,7 +2283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -2175,7 +2297,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -2189,7 +2311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -2203,7 +2325,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>103</v>
       </c>
@@ -2217,7 +2339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>104</v>
       </c>
@@ -2231,7 +2353,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>105</v>
       </c>
@@ -2245,7 +2367,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
@@ -2259,7 +2381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>107</v>
       </c>
@@ -2273,7 +2395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>108</v>
       </c>
@@ -2287,7 +2409,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>109</v>
       </c>
@@ -2301,7 +2423,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>110</v>
       </c>
@@ -2315,7 +2437,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>111</v>
       </c>
@@ -2329,7 +2451,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>112</v>
       </c>
@@ -2343,7 +2465,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
@@ -2357,7 +2479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>114</v>
       </c>
@@ -2371,7 +2493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>115</v>
       </c>
@@ -2385,7 +2507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>116</v>
       </c>
@@ -2399,7 +2521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>117</v>
       </c>
@@ -2413,7 +2535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>118</v>
       </c>
@@ -2427,7 +2549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>119</v>
       </c>
@@ -2441,7 +2563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>120</v>
       </c>
@@ -2455,7 +2577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>121</v>
       </c>
@@ -2469,7 +2591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>122</v>
       </c>
@@ -2483,7 +2605,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
@@ -2497,7 +2619,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
@@ -2511,7 +2633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
@@ -2525,7 +2647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
@@ -2539,7 +2661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
@@ -2563,18 +2685,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C7DA47-9FE4-46EF-B053-D1A8569D97D8}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="60.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2587,8 +2709,11 @@
       <c r="D1" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2598,9 +2723,11 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2610,9 +2737,11 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2622,9 +2751,11 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2634,9 +2765,11 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2646,9 +2779,11 @@
       <c r="C6">
         <v>14</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2658,9 +2793,11 @@
       <c r="C7">
         <v>16</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2670,9 +2807,11 @@
       <c r="C8">
         <v>18</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2682,9 +2821,11 @@
       <c r="C9">
         <v>20</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2694,9 +2835,11 @@
       <c r="C10">
         <v>22</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2706,9 +2849,11 @@
       <c r="C11">
         <v>24</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D11" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2718,9 +2863,11 @@
       <c r="C12">
         <v>26</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2730,9 +2877,11 @@
       <c r="C13">
         <v>28</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -2742,9 +2891,11 @@
       <c r="C14">
         <v>28</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2754,9 +2905,11 @@
       <c r="C15">
         <v>30</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -2766,9 +2919,11 @@
       <c r="C16">
         <v>32</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -2778,9 +2933,11 @@
       <c r="C17">
         <v>34</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -2790,9 +2947,11 @@
       <c r="C18">
         <v>40</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -2802,9 +2961,11 @@
       <c r="C19">
         <v>42</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -2814,9 +2975,11 @@
       <c r="C20">
         <v>42</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -2826,9 +2989,11 @@
       <c r="C21">
         <v>44</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -2838,9 +3003,11 @@
       <c r="C22">
         <v>46</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -2850,9 +3017,11 @@
       <c r="C23">
         <v>46</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -2862,9 +3031,11 @@
       <c r="C24">
         <v>48</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2874,9 +3045,11 @@
       <c r="C25">
         <v>50</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -2886,9 +3059,11 @@
       <c r="C26">
         <v>52</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D26" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -2898,9 +3073,11 @@
       <c r="C27">
         <v>54</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
@@ -2910,9 +3087,11 @@
       <c r="C28">
         <v>56</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
@@ -2922,9 +3101,11 @@
       <c r="C29">
         <v>58</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -2934,9 +3115,11 @@
       <c r="C30">
         <v>60</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2946,9 +3129,11 @@
       <c r="C31">
         <v>62</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -2958,9 +3143,11 @@
       <c r="C32">
         <v>62</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
@@ -2970,9 +3157,11 @@
       <c r="C33">
         <v>66</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -2982,9 +3171,11 @@
       <c r="C34">
         <v>70</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -2994,9 +3185,11 @@
       <c r="C35">
         <v>70</v>
       </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D35" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -3006,9 +3199,11 @@
       <c r="C36">
         <v>70</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -3018,9 +3213,11 @@
       <c r="C37">
         <v>72</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -3030,9 +3227,11 @@
       <c r="C38">
         <v>74</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D38" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,9 +3241,11 @@
       <c r="C39">
         <v>78</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>48</v>
       </c>
@@ -3054,9 +3255,11 @@
       <c r="C40">
         <v>80</v>
       </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>49</v>
       </c>
@@ -3066,9 +3269,11 @@
       <c r="C41">
         <v>84</v>
       </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D41" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -3078,9 +3283,11 @@
       <c r="C42">
         <v>88</v>
       </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D42" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -3090,9 +3297,11 @@
       <c r="C43">
         <v>90</v>
       </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D43" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>52</v>
       </c>
@@ -3102,9 +3311,11 @@
       <c r="C44">
         <v>92</v>
       </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D44" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
@@ -3114,9 +3325,11 @@
       <c r="C45">
         <v>96</v>
       </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D45" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -3126,9 +3339,11 @@
       <c r="C46">
         <v>100</v>
       </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D46" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>55</v>
       </c>
@@ -3138,9 +3353,11 @@
       <c r="C47">
         <v>102</v>
       </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D47" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -3150,9 +3367,11 @@
       <c r="C48">
         <v>102</v>
       </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D48" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>57</v>
       </c>
@@ -3162,9 +3381,11 @@
       <c r="C49">
         <v>104</v>
       </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D49" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -3174,9 +3395,11 @@
       <c r="C50">
         <v>106</v>
       </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D50" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>59</v>
       </c>
@@ -3186,9 +3409,11 @@
       <c r="C51">
         <v>108</v>
       </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D51" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>60</v>
       </c>
@@ -3198,9 +3423,11 @@
       <c r="C52">
         <v>108</v>
       </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>61</v>
       </c>
@@ -3210,9 +3437,11 @@
       <c r="C53">
         <v>110</v>
       </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>63</v>
       </c>
@@ -3222,9 +3451,11 @@
       <c r="C54">
         <v>116</v>
       </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D54" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -3234,9 +3465,11 @@
       <c r="C55">
         <v>118</v>
       </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D55" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -3246,9 +3479,11 @@
       <c r="C56">
         <v>120</v>
       </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -3258,9 +3493,11 @@
       <c r="C57">
         <v>120</v>
       </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D57" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
@@ -3270,9 +3507,11 @@
       <c r="C58">
         <v>122</v>
       </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -3282,9 +3521,11 @@
       <c r="C59">
         <v>122</v>
       </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
@@ -3294,9 +3535,11 @@
       <c r="C60">
         <v>122</v>
       </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -3308,7 +3551,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
@@ -3320,7 +3563,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>71</v>
       </c>
@@ -3330,9 +3573,11 @@
       <c r="C63">
         <v>128</v>
       </c>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D63" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>72</v>
       </c>
@@ -3342,9 +3587,11 @@
       <c r="C64">
         <v>130</v>
       </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D64" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -3354,9 +3601,11 @@
       <c r="C65">
         <v>132</v>
       </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D65" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>74</v>
       </c>
@@ -3366,9 +3615,11 @@
       <c r="C66">
         <v>134</v>
       </c>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>35</v>
       </c>
@@ -3378,9 +3629,11 @@
       <c r="C67">
         <v>136</v>
       </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -3390,9 +3643,11 @@
       <c r="C68">
         <v>138</v>
       </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>57</v>
       </c>
@@ -3402,9 +3657,11 @@
       <c r="C69">
         <v>138</v>
       </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D69" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -3414,9 +3671,11 @@
       <c r="C70">
         <v>140</v>
       </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D70" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -3426,9 +3685,11 @@
       <c r="C71">
         <v>142</v>
       </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D71" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -3438,9 +3699,11 @@
       <c r="C72">
         <v>144</v>
       </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -3450,9 +3713,11 @@
       <c r="C73">
         <v>146</v>
       </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
@@ -3462,9 +3727,11 @@
       <c r="C74">
         <v>148</v>
       </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
@@ -3474,9 +3741,11 @@
       <c r="C75">
         <v>150</v>
       </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D75" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -3486,9 +3755,11 @@
       <c r="C76">
         <v>152</v>
       </c>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
@@ -3498,9 +3769,11 @@
       <c r="C77">
         <v>152</v>
       </c>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
@@ -3510,9 +3783,11 @@
       <c r="C78">
         <v>154</v>
       </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
@@ -3522,9 +3797,11 @@
       <c r="C79">
         <v>156</v>
       </c>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D79" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
@@ -3534,9 +3811,11 @@
       <c r="C80">
         <v>158</v>
       </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
@@ -3546,9 +3825,11 @@
       <c r="C81">
         <v>158</v>
       </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>88</v>
       </c>
@@ -3558,9 +3839,11 @@
       <c r="C82">
         <v>160</v>
       </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>89</v>
       </c>
@@ -3570,9 +3853,11 @@
       <c r="C83">
         <v>164</v>
       </c>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D83" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>90</v>
       </c>
@@ -3582,9 +3867,11 @@
       <c r="C84">
         <v>166</v>
       </c>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D84" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
@@ -3594,9 +3881,11 @@
       <c r="C85">
         <v>168</v>
       </c>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>92</v>
       </c>
@@ -3606,9 +3895,11 @@
       <c r="C86">
         <v>170</v>
       </c>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D86" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>92</v>
       </c>
@@ -3618,9 +3909,11 @@
       <c r="C87">
         <v>170</v>
       </c>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D87" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>93</v>
       </c>
@@ -3630,9 +3923,11 @@
       <c r="C88">
         <v>172</v>
       </c>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>94</v>
       </c>
@@ -3642,9 +3937,11 @@
       <c r="C89">
         <v>174</v>
       </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D89" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>95</v>
       </c>
@@ -3654,9 +3951,11 @@
       <c r="C90">
         <v>174</v>
       </c>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D90" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>96</v>
       </c>
@@ -3666,9 +3965,11 @@
       <c r="C91">
         <v>176</v>
       </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D91" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>97</v>
       </c>
@@ -3678,9 +3979,11 @@
       <c r="C92">
         <v>178</v>
       </c>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D92" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>98</v>
       </c>
@@ -3690,9 +3993,11 @@
       <c r="C93">
         <v>184</v>
       </c>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D93" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>99</v>
       </c>
@@ -3702,9 +4007,11 @@
       <c r="C94">
         <v>186</v>
       </c>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="D94" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>100</v>
       </c>
@@ -3714,9 +4021,11 @@
       <c r="C95">
         <v>188</v>
       </c>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D95" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>101</v>
       </c>
@@ -3726,9 +4035,11 @@
       <c r="C96">
         <v>188</v>
       </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D96" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>103</v>
       </c>
@@ -3738,9 +4049,11 @@
       <c r="C97">
         <v>190</v>
       </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D97" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>104</v>
       </c>
@@ -3750,9 +4063,11 @@
       <c r="C98">
         <v>190</v>
       </c>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>105</v>
       </c>
@@ -3762,9 +4077,11 @@
       <c r="C99">
         <v>192</v>
       </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
@@ -3774,9 +4091,11 @@
       <c r="C100">
         <v>192</v>
       </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>107</v>
       </c>
@@ -3786,9 +4105,11 @@
       <c r="C101">
         <v>192</v>
       </c>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D101" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>108</v>
       </c>
@@ -3798,9 +4119,11 @@
       <c r="C102">
         <v>196</v>
       </c>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D102" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>109</v>
       </c>
@@ -3810,9 +4133,11 @@
       <c r="C103">
         <v>196</v>
       </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D103" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>110</v>
       </c>
@@ -3822,9 +4147,11 @@
       <c r="C104">
         <v>198</v>
       </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D104" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>111</v>
       </c>
@@ -3834,9 +4161,11 @@
       <c r="C105">
         <v>200</v>
       </c>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D105" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>112</v>
       </c>
@@ -3846,9 +4175,11 @@
       <c r="C106">
         <v>202</v>
       </c>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>113</v>
       </c>
@@ -3858,9 +4189,11 @@
       <c r="C107">
         <v>208</v>
       </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D107" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>114</v>
       </c>
@@ -3870,9 +4203,11 @@
       <c r="C108">
         <v>208</v>
       </c>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D108" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>115</v>
       </c>
@@ -3882,9 +4217,11 @@
       <c r="C109">
         <v>210</v>
       </c>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D109" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>116</v>
       </c>
@@ -3894,9 +4231,11 @@
       <c r="C110">
         <v>212</v>
       </c>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>117</v>
       </c>
@@ -3906,9 +4245,11 @@
       <c r="C111">
         <v>212</v>
       </c>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D111" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>118</v>
       </c>
@@ -3918,9 +4259,11 @@
       <c r="C112">
         <v>214</v>
       </c>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D112" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>119</v>
       </c>
@@ -3930,9 +4273,11 @@
       <c r="C113">
         <v>216</v>
       </c>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D113" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>120</v>
       </c>
@@ -3942,9 +4287,11 @@
       <c r="C114">
         <v>218</v>
       </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D114" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>121</v>
       </c>
@@ -3954,9 +4301,11 @@
       <c r="C115">
         <v>220</v>
       </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>122</v>
       </c>
@@ -3966,9 +4315,11 @@
       <c r="C116">
         <v>222</v>
       </c>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D116" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>122</v>
       </c>
@@ -3978,9 +4329,11 @@
       <c r="C117">
         <v>222</v>
       </c>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D117" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>123</v>
       </c>
@@ -3990,9 +4343,11 @@
       <c r="C118">
         <v>224</v>
       </c>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D118" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
@@ -4002,9 +4357,11 @@
       <c r="C119">
         <v>224</v>
       </c>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D119" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>125</v>
       </c>
@@ -4014,9 +4371,11 @@
       <c r="C120">
         <v>224</v>
       </c>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D120" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>126</v>
       </c>
@@ -4026,7 +4385,9 @@
       <c r="C121">
         <v>226</v>
       </c>
-      <c r="D121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/annotation/vp1_test_selina.xlsx
+++ b/annotation/vp1_test_selina.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selinameyer/Documents/GitHub/CookversationalSearch/annotation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E43EBE1-8E8E-2A46-8B4C-899AA9BF36B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FBE1A-4DD1-F041-9985-232563694D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28080" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="165">
   <si>
     <t>utterance</t>
   </si>
@@ -2687,13 +2687,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C7DA47-9FE4-46EF-B053-D1A8569D97D8}">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="71" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -3455,7 +3455,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -3466,10 +3466,10 @@
         <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>65</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>120</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -3539,7 +3539,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>69</v>
       </c>
@@ -3549,7 +3549,9 @@
       <c r="C61">
         <v>124</v>
       </c>
-      <c r="D61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
